--- a/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>143,52%</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>127,31%</t>
+          <t>754,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>288,54%</t>
+          <t>89,88%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>204,59%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,73</t>
+          <t>1,64; 8,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,13</t>
+          <t>-1,42; 4,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,93</t>
+          <t>1,72; 7,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 748,79</t>
+          <t>1,76; 13,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 773,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 1524,64</t>
+          <t>-75,29; 1107,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12,25; 895,81</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236,69%</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>980,86%</t>
+          <t>447,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>913,97%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>182,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71,5%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,53</t>
+          <t>0,43; 6,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,47</t>
+          <t>0,51; 4,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 11,97</t>
+          <t>-0,56; 6,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 1372,41</t>
+          <t>-3,04; 10,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,92; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,68; 427,03</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-72,01%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-33,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 1,47</t>
+          <t>-16,15; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,96</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>166,07%</t>
+          <t>325,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>387,58%</t>
+          <t>192,76%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>654,83%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>141,32%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,88</t>
+          <t>1,04; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,28</t>
+          <t>0,05; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,52</t>
+          <t>1,3; 5,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 310,74</t>
+          <t>1,38; 9,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 559,79</t>
+          <t>24,12; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,4; 1153,26</t>
+          <t>-38,49; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38,77; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 469,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>754,22%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>89,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>204,59%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.072000375704799</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.358928444736309</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.369744952982178</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.373646452210703</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>7.69553229055597</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9778547380490775</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.268436425557669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 8,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 4,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 7,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 13,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-75,29; 1107,43</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>12,25; 895,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.50735749005312</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.272922875400253</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.585841211156285</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.916147819333829</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.7623828117169515</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>0.1298698999153556</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.533387854856912</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.465961507288418</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.016900216252322</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.64139186661833</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>9.910697729611281</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>9.737095552305439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>447,43%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>182,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>71,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 6,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 4,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 6,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 10,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-55,68; 427,03</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.290065844321485</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.629145296059184</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.627561897996244</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.047171498644084</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>5.288987524557991</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.595445768131204</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9931243826827922</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.5751727377924264</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4776309866977177</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4634757597866616</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.047341095855966</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.4833697193587573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,15; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,43</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.764504149723657</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.597596733735902</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.929849291700723</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.00291165323135</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>5.576651147725354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +811,165 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>325,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>192,76%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>654,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>141,32%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.049206131297102</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.308201650565473</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 5,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 3,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 5,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 9,27</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>24,12; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-38,49; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>38,77; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 469,05</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.88822231426979</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>9.912671094672785</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.060916760808822</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.371156972666729</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.943238663962108</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.340355409417145</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.737284635997763</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.105629595925548</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>6.893976278765637</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.667552244132786</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.11016086681512</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1226337889720687</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.353152746113082</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.57768952746869</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3541704573635523</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3859704957237889</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.3379525810244446</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2948228106975525</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.350153199248734</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.18251609556517</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.002395594902108</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.846824301847207</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>5.394759552471398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +977,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
